--- a/data/trans_dic/P25_4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_4-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica</t>
+          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,94</t>
+          <t>4,2; 15,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,07; 12,87</t>
+          <t>5,92; 14,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,44</t>
+          <t>7,45; 15,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 14,31</t>
+          <t>2,53; 11,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,51</t>
+          <t>2,18; 10,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,75</t>
+          <t>2,17; 7,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,74</t>
+          <t>3,61; 8,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,58</t>
+          <t>1,43; 7,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 10,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 10,54</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 9,5</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,23; 11,0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 7,41</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,89</t>
+          <t>1,98; 6,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,89</t>
+          <t>1,97; 6,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,0</t>
+          <t>1,37; 4,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,59</t>
+          <t>1,33; 5,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,41</t>
+          <t>0,88; 8,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,22</t>
+          <t>1,5; 5,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,81</t>
+          <t>1,97; 7,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,51</t>
+          <t>0,46; 2,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 5,6</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 5,0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 4,8</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 3,65</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,54%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,92%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,34</t>
+          <t>0,66; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 7,14</t>
+          <t>1,13; 4,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,79</t>
+          <t>0,56; 2,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,88</t>
+          <t>1,11; 5,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,9</t>
+          <t>0,81; 3,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,82; 3,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,08</t>
+          <t>0,74; 2,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,84</t>
+          <t>2,2; 9,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 3,13</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 3,06</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 2,26</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 5,81</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,49</t>
+          <t>1,66; 5,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,08</t>
+          <t>1,32; 6,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,27</t>
+          <t>1,86; 6,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,35</t>
+          <t>1,53; 4,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,16</t>
+          <t>1,36; 5,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,14</t>
+          <t>1,54; 6,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 4,2</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 5,24</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 5,28</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 4,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 5,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 5,26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 4,89</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 4,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 3,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 4,97</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 4,16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 4,05</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 4,31</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 4,63</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 4,13</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29547</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>51736</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>79635</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26076</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23114</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26668</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53127</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23697</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>52661</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>78404</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>132763</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>49772</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14250; 53758</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31410; 77515</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54140; 112504</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11336; 49300</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9123; 44779</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13875; 44998</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32454; 76367</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9242; 51087</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>31036; 79930</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>55240; 111005</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>101286; 178666</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>27050; 80969</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33759</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>41775</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39691</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31123</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26030</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>33657</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52254</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14089</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>59789</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>75433</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>91945</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>45212</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18476; 58070</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23711; 82017</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22165; 74892</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14175; 57231</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8765; 85840</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18547; 65479</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29742; 113954</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4940; 30695</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>35261; 108169</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>47120; 121998</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>59395; 150238</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>26685; 78626</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13091</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19460</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14110</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22336</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13705</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16393</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17956</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37605</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>26796</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>35852</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>32066</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>59941</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4737; 26818</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9520; 35010</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6117; 26831</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9178; 48000</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6214; 30282</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7693; 31386</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8662; 34072</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19754; 81828</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14270; 46342</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>21930; 54769</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>19291; 50886</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>36540; 100196</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>42945</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25766</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>38195</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38207</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22421</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>30519</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>81153</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>48187</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>68714</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24245; 73738</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11356; 57210</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>20465; 67248</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21380; 67448</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10377; 42554</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>15118; 62821</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>53522; 120029</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>27117; 84913</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>43200; 109958</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>119342</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>138737</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>133437</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>117730</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>101057</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>99139</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>123337</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>105909</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>220399</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>237876</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>256774</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>223639</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>83774; 159688</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>100260; 185727</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>101274; 180771</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>85335; 168252</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>69149; 151576</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>71186; 136540</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>89049; 177292</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>71046; 150153</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>174225; 284581</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>189190; 302046</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>207153; 324396</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>172320; 291164</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
